--- a/LB_partialeffectsizes.xlsx
+++ b/LB_partialeffectsizes.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.0009990747459492802</v>
+        <v>0.00405925679480678</v>
       </c>
       <c r="C2">
         <v>0.95</v>
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.01389205278970534</v>
+        <v>0.01629628766303026</v>
       </c>
       <c r="C3">
         <v>0.95</v>

--- a/LB_partialeffectsizes.xlsx
+++ b/LB_partialeffectsizes.xlsx
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.00405925679480678</v>
+        <v>0.004217953340726158</v>
       </c>
       <c r="C2">
         <v>0.95</v>
@@ -410,7 +410,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.01629628766303026</v>
+        <v>0.01648102329806245</v>
       </c>
       <c r="C3">
         <v>0.95</v>
